--- a/data/trans_orig/IP18A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5226D754-34BA-4474-93AF-35A7DE8DE599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C201E0-617C-4D43-9628-FB2F6F980C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5D6C9A0-E13A-4396-AE8C-7FBC2EE0005A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3F1A2D-C174-4971-82F2-3A36E9EC2B41}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
   <si>
     <t>Menores según su última visita al médico fue por control de salud periodico en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -104,568 +104,574 @@
     <t>20,24%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>11,35%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2016 (Tasa respuesta: 90,5%)</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>26,13%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>73,87%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2015 (Tasa respuesta: 90,5%)</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>85,89%</t>
   </si>
   <si>
     <t>19,43%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>80,57%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>17,96%</t>
+    <t>18,49%</t>
   </si>
   <si>
     <t>25,71%</t>
@@ -674,19 +680,19 @@
     <t>80,03%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
   </si>
   <si>
     <t>78,42%</t>
@@ -695,61 +701,55 @@
     <t>74,29%</t>
   </si>
   <si>
-    <t>82,04%</t>
+    <t>81,51%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>21,06%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>80,69%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>78,94%</t>
   </si>
   <si>
     <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
@@ -758,193 +758,199 @@
     <t>6,43%</t>
   </si>
   <si>
-    <t>35,72%</t>
+    <t>31,58%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>49,38%</t>
+    <t>48,17%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>64,28%</t>
+    <t>68,42%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>50,62%</t>
+    <t>51,83%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>28,94%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>77,18%</t>
   </si>
   <si>
-    <t>71,06%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>80,16%</t>
   </si>
   <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649FDA1E-595F-4832-BDCF-4DD94F71AAD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3396F-FD1D-43CD-ABA5-ACFB3C5A0070}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2257,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E99EA2-10AF-4551-A421-20C0EECC626E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30787DF5-B55F-4CE0-B4C3-EA5B69956FF4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2691,7 +2697,7 @@
         <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
@@ -2700,13 +2706,13 @@
         <v>92664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>248</v>
@@ -2715,13 +2721,13 @@
         <v>174129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2742,13 @@
         <v>385688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>476</v>
@@ -2751,13 +2757,13 @@
         <v>328335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>1028</v>
@@ -2766,13 +2772,13 @@
         <v>714023</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2846,13 @@
         <v>38957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2855,13 +2861,13 @@
         <v>27099</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -2870,13 +2876,13 @@
         <v>66056</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2897,13 @@
         <v>126079</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -2906,13 +2912,13 @@
         <v>128967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>359</v>
@@ -2921,13 +2927,13 @@
         <v>255046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3001,13 @@
         <v>134200</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -3010,13 +3016,13 @@
         <v>139810</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>391</v>
@@ -3025,13 +3031,13 @@
         <v>274010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3052,13 @@
         <v>575615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>753</v>
@@ -3061,13 +3067,13 @@
         <v>523247</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>1571</v>
@@ -3076,13 +3082,13 @@
         <v>1098862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FFBF54-5EE7-497F-B0FB-DCE8E7041BC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404DF5F8-6841-4314-ABEC-FD7646CC6CD5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3175,7 +3181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3419,13 +3425,13 @@
         <v>12013</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3434,13 +3440,13 @@
         <v>10834</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -3449,13 +3455,13 @@
         <v>22847</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3476,13 @@
         <v>50052</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -3485,13 +3491,13 @@
         <v>43826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>136</v>
@@ -3500,13 +3506,13 @@
         <v>93878</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3580,13 @@
         <v>84875</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -3589,13 +3595,13 @@
         <v>75479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -3604,13 +3610,13 @@
         <v>160354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3631,13 @@
         <v>351954</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>538</v>
@@ -3640,13 +3646,13 @@
         <v>357900</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>1036</v>
@@ -3655,13 +3661,13 @@
         <v>709854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3735,13 @@
         <v>34147</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -3744,13 +3750,13 @@
         <v>35815</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>105</v>
@@ -3759,13 +3765,13 @@
         <v>69961</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3786,13 @@
         <v>136878</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -3795,13 +3801,13 @@
         <v>117415</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>371</v>
@@ -3810,13 +3816,13 @@
         <v>254294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3890,13 @@
         <v>131035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>189</v>
@@ -3899,13 +3905,13 @@
         <v>122128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>381</v>
@@ -3914,13 +3920,13 @@
         <v>253163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3941,13 @@
         <v>538884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>778</v>
@@ -3950,13 +3956,13 @@
         <v>519141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>1543</v>
@@ -3965,13 +3971,13 @@
         <v>1058025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79584F7E-10B3-462F-9603-57BF5140A21B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAF4B6A-5CE7-45F5-A273-064CE29BAE95}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4496,10 +4502,10 @@
         <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4520,13 @@
         <v>68654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>76</v>
@@ -4529,13 +4535,13 @@
         <v>50193</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>180</v>
@@ -4544,13 +4550,13 @@
         <v>118848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4624,13 @@
         <v>5195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4633,13 +4639,13 @@
         <v>2941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4648,13 +4654,13 @@
         <v>8137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4675,13 @@
         <v>24393</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4684,13 +4690,13 @@
         <v>24399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -4699,13 +4705,13 @@
         <v>48791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4779,13 @@
         <v>25092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -4788,13 +4794,13 @@
         <v>19806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -4803,13 +4809,13 @@
         <v>44898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4830,13 @@
         <v>101333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -4839,13 +4845,13 @@
         <v>80117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -4854,13 +4860,13 @@
         <v>181450</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP18A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C201E0-617C-4D43-9628-FB2F6F980C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1502DB6-6950-49D5-BBD0-DDE105059AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3F1A2D-C174-4971-82F2-3A36E9EC2B41}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{02FD08AA-169B-4792-9FAB-D3BDA0214A42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2007 (Tasa respuesta: 87,02%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2007 (Tasa respuesta: 87,02%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,889 +68,880 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2012 (Tasa respuesta: 93,47%)</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2016 (Tasa respuesta: 90,5%)</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2016 (Tasa respuesta: 90,5%)</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3396F-FD1D-43CD-ABA5-ACFB3C5A0070}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A609E3AA-6350-4B64-89FD-66C9686428BA}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1480,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>12859</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1495,81 +1486,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>14986</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>27845</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>58538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I5" s="7">
+        <v>59070</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>117608</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,151 +1573,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>71397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="I6" s="7">
+        <v>74056</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>145453</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="D7" s="7">
-        <v>14986</v>
+        <v>84325</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I7" s="7">
-        <v>12859</v>
+        <v>76299</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="N7" s="7">
-        <v>27845</v>
+        <v>160624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>89</v>
+        <v>432</v>
       </c>
       <c r="D8" s="7">
-        <v>59070</v>
+        <v>288001</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>501</v>
       </c>
       <c r="I8" s="7">
-        <v>58538</v>
+        <v>333012</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>175</v>
+        <v>933</v>
       </c>
       <c r="N8" s="7">
-        <v>117608</v>
+        <v>621013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,153 +1728,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="D9" s="7">
-        <v>74056</v>
+        <v>372326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>106</v>
+        <v>618</v>
       </c>
       <c r="I9" s="7">
-        <v>71397</v>
+        <v>409311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>217</v>
+        <v>1179</v>
       </c>
       <c r="N9" s="7">
-        <v>145453</v>
+        <v>781637</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>76299</v>
+        <v>42455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>84325</v>
+        <v>34555</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="N10" s="7">
-        <v>160624</v>
+        <v>77010</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>501</v>
+        <v>162</v>
       </c>
       <c r="D11" s="7">
-        <v>333012</v>
+        <v>111839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>432</v>
+        <v>158</v>
       </c>
       <c r="I11" s="7">
-        <v>288001</v>
+        <v>105366</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>933</v>
+        <v>320</v>
       </c>
       <c r="N11" s="7">
-        <v>621013</v>
+        <v>217205</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,153 +1883,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>618</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>409311</v>
+        <v>154294</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>561</v>
+        <v>209</v>
       </c>
       <c r="I12" s="7">
-        <v>372326</v>
+        <v>139921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1179</v>
+        <v>434</v>
       </c>
       <c r="N12" s="7">
-        <v>781637</v>
+        <v>294215</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="D13" s="7">
-        <v>34555</v>
+        <v>139640</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="I13" s="7">
-        <v>42455</v>
+        <v>125839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="N13" s="7">
-        <v>77010</v>
+        <v>265479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>158</v>
+        <v>680</v>
       </c>
       <c r="D14" s="7">
-        <v>105366</v>
+        <v>458378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>162</v>
+        <v>748</v>
       </c>
       <c r="I14" s="7">
-        <v>111839</v>
+        <v>497449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>320</v>
+        <v>1428</v>
       </c>
       <c r="N14" s="7">
-        <v>217205</v>
+        <v>955827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,216 +2038,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>209</v>
+        <v>892</v>
       </c>
       <c r="D15" s="7">
-        <v>139921</v>
+        <v>598018</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>938</v>
       </c>
       <c r="I15" s="7">
-        <v>154294</v>
+        <v>623288</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>434</v>
+        <v>1830</v>
       </c>
       <c r="N15" s="7">
-        <v>294215</v>
+        <v>1221306</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>191</v>
-      </c>
-      <c r="D16" s="7">
-        <v>126565</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>212</v>
-      </c>
-      <c r="I16" s="7">
-        <v>139640</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>403</v>
-      </c>
-      <c r="N16" s="7">
-        <v>266205</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>748</v>
-      </c>
-      <c r="D17" s="7">
-        <v>497449</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>680</v>
-      </c>
-      <c r="I17" s="7">
-        <v>458378</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1428</v>
-      </c>
-      <c r="N17" s="7">
-        <v>955827</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>939</v>
-      </c>
-      <c r="D18" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>892</v>
-      </c>
-      <c r="I18" s="7">
-        <v>598018</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1831</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1222032</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2263,8 +2104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30787DF5-B55F-4CE0-B4C3-EA5B69956FF4}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C6F822-D15C-4FB2-BDBC-5AED3DEE2623}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2280,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2381,96 +2222,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>20047</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13137</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>33184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>65945</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I5" s="7">
+        <v>63849</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>129794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,151 +2324,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>85992</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="I6" s="7">
+        <v>76986</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>162978</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>13137</v>
+        <v>92664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I7" s="7">
-        <v>20047</v>
+        <v>81464</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="N7" s="7">
-        <v>33184</v>
+        <v>174129</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>89</v>
+        <v>476</v>
       </c>
       <c r="D8" s="7">
-        <v>63849</v>
+        <v>328335</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>95</v>
+        <v>552</v>
       </c>
       <c r="I8" s="7">
-        <v>65945</v>
+        <v>385688</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>184</v>
+        <v>1028</v>
       </c>
       <c r="N8" s="7">
-        <v>129794</v>
+        <v>714023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,153 +2479,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>108</v>
+        <v>610</v>
       </c>
       <c r="D9" s="7">
-        <v>76986</v>
+        <v>420999</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>124</v>
+        <v>666</v>
       </c>
       <c r="I9" s="7">
-        <v>85992</v>
+        <v>467152</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>232</v>
+        <v>1276</v>
       </c>
       <c r="N9" s="7">
-        <v>162978</v>
+        <v>888152</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>81464</v>
+        <v>27099</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>92664</v>
+        <v>38957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7">
-        <v>174129</v>
+        <v>66056</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>182</v>
       </c>
       <c r="D11" s="7">
-        <v>385688</v>
+        <v>128967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>476</v>
+        <v>177</v>
       </c>
       <c r="I11" s="7">
-        <v>328335</v>
+        <v>126079</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>1028</v>
+        <v>359</v>
       </c>
       <c r="N11" s="7">
-        <v>714023</v>
+        <v>255046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,153 +2634,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>666</v>
+        <v>220</v>
       </c>
       <c r="D12" s="7">
-        <v>467152</v>
+        <v>156066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>610</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>420999</v>
+        <v>165036</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1276</v>
+        <v>453</v>
       </c>
       <c r="N12" s="7">
-        <v>888152</v>
+        <v>321102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="D13" s="7">
-        <v>38957</v>
+        <v>139810</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="I13" s="7">
-        <v>27099</v>
+        <v>133559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="N13" s="7">
-        <v>66056</v>
+        <v>273368</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>177</v>
+        <v>753</v>
       </c>
       <c r="D14" s="7">
-        <v>126079</v>
+        <v>523247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>182</v>
+        <v>818</v>
       </c>
       <c r="I14" s="7">
-        <v>128967</v>
+        <v>575615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>359</v>
+        <v>1571</v>
       </c>
       <c r="N14" s="7">
-        <v>255046</v>
+        <v>1098863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,216 +2789,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>954</v>
       </c>
       <c r="D15" s="7">
-        <v>165036</v>
+        <v>663057</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>220</v>
+        <v>1007</v>
       </c>
       <c r="I15" s="7">
-        <v>156066</v>
+        <v>709174</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>453</v>
+        <v>1961</v>
       </c>
       <c r="N15" s="7">
-        <v>321102</v>
+        <v>1372231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>190</v>
-      </c>
-      <c r="D16" s="7">
-        <v>134200</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>201</v>
-      </c>
-      <c r="I16" s="7">
-        <v>139810</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M16" s="7">
-        <v>391</v>
-      </c>
-      <c r="N16" s="7">
-        <v>274010</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>818</v>
-      </c>
-      <c r="D17" s="7">
-        <v>575615</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="7">
-        <v>753</v>
-      </c>
-      <c r="I17" s="7">
-        <v>523247</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1571</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1098862</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1008</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709815</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>954</v>
-      </c>
-      <c r="I18" s="7">
-        <v>663057</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1962</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1372872</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3164,8 +2855,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404DF5F8-6841-4314-ABEC-FD7646CC6CD5}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F984531-221B-476C-880F-EEB8291F704E}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3181,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3282,88 +2973,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10834</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12013</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N4" s="7">
+        <v>22847</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43826</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="I5" s="7">
+        <v>50052</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="N5" s="7">
+        <v>93878</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,147 +3075,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54660</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62065</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="N6" s="7">
+        <v>116725</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7">
-        <v>12013</v>
+        <v>75479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="I7" s="7">
-        <v>10834</v>
+        <v>84875</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="N7" s="7">
-        <v>22847</v>
+        <v>160354</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>71</v>
+        <v>538</v>
       </c>
       <c r="D8" s="7">
-        <v>50052</v>
+        <v>357900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>498</v>
       </c>
       <c r="I8" s="7">
-        <v>43826</v>
+        <v>351954</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>136</v>
+        <v>1036</v>
       </c>
       <c r="N8" s="7">
-        <v>93878</v>
+        <v>709854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,153 +3230,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>656</v>
       </c>
       <c r="D9" s="7">
-        <v>62065</v>
+        <v>433379</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>622</v>
       </c>
       <c r="I9" s="7">
-        <v>54660</v>
+        <v>436829</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>170</v>
+        <v>1278</v>
       </c>
       <c r="N9" s="7">
-        <v>116725</v>
+        <v>870208</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>84875</v>
+        <v>35815</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>75479</v>
+        <v>34147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="N10" s="7">
-        <v>160354</v>
+        <v>69961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>498</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>351954</v>
+        <v>117415</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="7">
         <v>196</v>
       </c>
-      <c r="H11" s="7">
-        <v>538</v>
-      </c>
       <c r="I11" s="7">
-        <v>357900</v>
+        <v>136878</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
-        <v>1036</v>
+        <v>371</v>
       </c>
       <c r="N11" s="7">
-        <v>709854</v>
+        <v>254294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,153 +3385,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>622</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>436829</v>
+        <v>153230</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>656</v>
+        <v>247</v>
       </c>
       <c r="I12" s="7">
-        <v>433379</v>
+        <v>171025</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1278</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>870208</v>
+        <v>324255</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="D13" s="7">
-        <v>34147</v>
+        <v>122128</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="I13" s="7">
-        <v>35815</v>
+        <v>131035</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
+        <v>381</v>
       </c>
       <c r="N13" s="7">
-        <v>69961</v>
+        <v>253163</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>196</v>
+        <v>778</v>
       </c>
       <c r="D14" s="7">
-        <v>136878</v>
+        <v>519141</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>175</v>
+        <v>765</v>
       </c>
       <c r="I14" s="7">
-        <v>117415</v>
+        <v>538884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>371</v>
+        <v>1543</v>
       </c>
       <c r="N14" s="7">
-        <v>254294</v>
+        <v>1058025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,216 +3540,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>247</v>
+        <v>967</v>
       </c>
       <c r="D15" s="7">
-        <v>171025</v>
+        <v>641269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>957</v>
       </c>
       <c r="I15" s="7">
-        <v>153230</v>
+        <v>669919</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>476</v>
+        <v>1924</v>
       </c>
       <c r="N15" s="7">
-        <v>324255</v>
+        <v>1311188</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>192</v>
-      </c>
-      <c r="D16" s="7">
-        <v>131035</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="7">
-        <v>189</v>
-      </c>
-      <c r="I16" s="7">
-        <v>122128</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M16" s="7">
-        <v>381</v>
-      </c>
-      <c r="N16" s="7">
-        <v>253163</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>765</v>
-      </c>
-      <c r="D17" s="7">
-        <v>538884</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="7">
-        <v>778</v>
-      </c>
-      <c r="I17" s="7">
-        <v>519141</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1543</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1058025</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>957</v>
-      </c>
-      <c r="D18" s="7">
-        <v>669919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>967</v>
-      </c>
-      <c r="I18" s="7">
-        <v>641269</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1924</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1311188</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4053,8 +3606,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAF4B6A-5CE7-45F5-A273-064CE29BAE95}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEEE36B-DF2C-40E6-9166-3A377DBBE9A3}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4070,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4171,88 +3724,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>979</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>648</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1626</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5566</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8786</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="N5" s="7">
+        <v>14353</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,147 +3826,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6545</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9434</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N6" s="7">
+        <v>15979</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>569</v>
+        <v>15350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>1049</v>
+        <v>19128</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="N7" s="7">
-        <v>1618</v>
+        <v>34478</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
-        <v>8287</v>
+        <v>50888</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I8" s="7">
-        <v>5525</v>
+        <v>72121</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="N8" s="7">
-        <v>13812</v>
+        <v>123009</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,153 +3981,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>8856</v>
+        <v>66238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7">
-        <v>6574</v>
+        <v>91249</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7">
-        <v>15430</v>
+        <v>157487</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>19328</v>
+        <v>2900</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>15816</v>
+        <v>5267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>35143</v>
+        <v>8167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>68654</v>
+        <v>24631</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>50193</v>
+        <v>25642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>118848</v>
+        <v>50274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,153 +4136,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>87982</v>
+        <v>27531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>66009</v>
+        <v>30909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>153991</v>
+        <v>58441</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>5195</v>
+        <v>19229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>2941</v>
+        <v>25042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>8137</v>
+        <v>44271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="D14" s="7">
-        <v>24393</v>
+        <v>81085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="I14" s="7">
-        <v>24399</v>
+        <v>106550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
-        <v>69</v>
+        <v>270</v>
       </c>
       <c r="N14" s="7">
-        <v>48791</v>
+        <v>187635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,216 +4291,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7">
-        <v>29588</v>
+        <v>100314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="I15" s="7">
-        <v>27340</v>
+        <v>131592</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="N15" s="7">
-        <v>56928</v>
+        <v>231906</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7">
-        <v>25092</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16" s="7">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19806</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M16" s="7">
-        <v>71</v>
-      </c>
-      <c r="N16" s="7">
-        <v>44898</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>147</v>
-      </c>
-      <c r="D17" s="7">
-        <v>101333</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H17" s="7">
-        <v>123</v>
-      </c>
-      <c r="I17" s="7">
-        <v>80117</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M17" s="7">
-        <v>270</v>
-      </c>
-      <c r="N17" s="7">
-        <v>181450</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>188</v>
-      </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
-      <c r="I18" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>341</v>
-      </c>
-      <c r="N18" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
